--- a/public/files/rasxodData.xlsx
+++ b/public/files/rasxodData.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">№</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Наименование затрать</t>
   </si>
@@ -50,6 +47,19 @@
   </si>
   <si>
     <t xml:space="preserve">Итого</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010+2310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9410+9420+9430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В.том числе
+ перевозка по счёту 94.20.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВСЕГО </t>
   </si>
 </sst>
 </file>
@@ -59,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -89,16 +99,30 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -106,6 +130,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -132,7 +163,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -141,7 +172,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -166,24 +205,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -214,194 +253,186 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>2310</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3" t="n">
+        <v>9410</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="n">
+        <v>9420</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
+      <c r="A7" s="3" t="n">
+        <v>9430</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="A11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
+      <c r="A12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3"/>
+      <c r="A13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3"/>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3"/>
+      <c r="A16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3"/>
+      <c r="A17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3"/>
+      <c r="A18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3"/>
+      <c r="A19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3"/>
+      <c r="A20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3"/>
+      <c r="A21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3"/>
+      <c r="A22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3"/>
+      <c r="A23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3"/>
+      <c r="A24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3"/>
+      <c r="A25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3"/>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3"/>
+      <c r="A29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3"/>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
-      </c>
+      <c r="A31" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
